--- a/report/acs.xlsx
+++ b/report/acs.xlsx
@@ -7679,6 +7679,768 @@
     <t xml:space="preserve">27/09/1964</t>
   </si>
   <si>
+    <t xml:space="preserve">2900231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOSSA SENHORA APARECIDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Nossa Senhora Aparecida - GDNEB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FABRICIO FIGUEIRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/5/2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71330496000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12516418126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2900245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GREICE DEMETRIO SANTANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/14/2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98168053087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12678260714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2900809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANA KELLY DE ARAUJO BASTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/3/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70503362034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12446758152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2900848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALINE FELICIANO NUNES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/21/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98733974004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12703005719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2900249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GISELE PADILHA RIBEIRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81477171053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12929300703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/04/1982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2900250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JANETE PEREIRA SILVEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47502207015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12027089766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/05/1967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2900248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIA MARGARETE JASKULSKI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50424378000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12064109694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/01/1966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2900234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROSANA APARECIDA PIRES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45967636072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12309744206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19/12/1965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2900486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JORGETE MARIA FEIJO PEREIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42296986072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10878315915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/03/1966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2902118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VANESSA DUARTE MOREIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00615895000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12766642678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14/07/1985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2900079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAZARE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Nazaré - GDNHNI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANGELICA MICHELE DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4/10/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00821388002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20685616112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2900008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MORRO DOS SARGENTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Morro dos Sargentos - GDSCS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARILDE DE OLIVEIRA BUENO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76350541049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12590676680</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2900009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARTA BITTENCOURT BARCELLOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/1/2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97744719034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12898162673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2900015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARINES VAZ WOLMANN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3/2/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55661491034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12272876341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2900016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELINARA FAGUNDES MUNHOZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/17/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91454778091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20116604616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2900674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAQUELINE FAGUNDES HARTWIG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02592303081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13121633715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2900013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DARCILLA PINHEIRO CAMPOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89179579000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12580778707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (1 maior)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/06/1977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2900014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROSANI TERESINHA PINTO DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73026611034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12024503316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/10/1959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2901765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VANESSA ROCHA MACIEL OLIVEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00793287090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16045953356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2901105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CELIA REGINA CAMPOS COSTA DE SOUZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71483349004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12406529411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2900465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MORRO DA CRUZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Morro da Cruz - GDPLP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRASIELE REGINA CENTENO PATRICIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/24/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02242221043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21055837703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2900579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEDIA DEISE DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/10/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48818410091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12331468852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2901183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CATARINA DORNELLES GONCALVES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/15/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00886014042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12969224676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2901205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEXSANDRO SILVA DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4/6/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74795988072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12589094681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2901180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADRIANA ROSA DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63270137087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12453241887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21/10/1974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2900568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLAUDIA RAQUEL IDALGO DE FARIAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92157033068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19018962263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/06/1975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2901434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRANCESCA CARLA CENTENO PATRICIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80419151087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12634529718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25/11/1980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2901196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GISLAINE ALVES DA COSTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90577655000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12521958389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/06/1978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2903697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARISTELA GIACOMINI CASTRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74820052004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12599603694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13/08/1977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2901760</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUELI TERESINHA DA SILVA SANTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1760</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88336913068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20393112130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/07/1965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2900012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MORADAS DA HIPICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Moradas da Hípica - GDSCS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLEITON SANTOS DOS PASSOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/2/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43626637034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10861459404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2900021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUCIANE CARDOSO THOME FRANCISCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/25/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58371834004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12272768476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2901212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMADEU PIO DE ALMEIDA NETO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8/15/2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92888852004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12614398677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2901214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAISY DE LIMA BARRES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76458695004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12484045230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/01/1977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2901785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HILDA NARA RIBEIRO SULZBACH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62724070097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12433174254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 maiores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14/12/1971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2902391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVONETE APARECIDA DOS SANTOS OLIVEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54310008020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12511288941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16/08/1964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2902366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KELLY LUCAS ARAUJO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90885171004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12560264503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/08/1975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2902385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LETICIA SANT ANNA CANTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97130443049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12871137686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13/04/1981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2901354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROSEMERI MENEZES FONTES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49191586020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12294604557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30/09/1967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2901386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANGELA MARIA DE SOUZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/6/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96961899072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12834019713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2901773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VERA REGINA FRAGA CONTESSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31577474015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10850058373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24/03/1960</t>
+  </si>
+  <si>
     <t xml:space="preserve">2900182</t>
   </si>
   <si>
@@ -7695,768 +8457,6 @@
   </si>
   <si>
     <t xml:space="preserve">02/02/1976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2900231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOSSA SENHORA APARECIDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US Nossa Senhora Aparecida - GDNEB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FABRICIO FIGUEIRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6/5/2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71330496000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12516418126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2900245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GREICE DEMETRIO SANTANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/14/2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98168053087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12678260714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2900809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANA KELLY DE ARAUJO BASTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6/3/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70503362034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12446758152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2900848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALINE FELICIANO NUNES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7/21/2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98733974004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12703005719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2900249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GISELE PADILHA RIBEIRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81477171053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12929300703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18/04/1982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2900250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JANETE PEREIRA SILVEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47502207015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12027089766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/05/1967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2900248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARIA MARGARETE JASKULSKI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50424378000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12064109694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09/01/1966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2900234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROSANA APARECIDA PIRES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45967636072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12309744206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19/12/1965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2900486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JORGETE MARIA FEIJO PEREIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42296986072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10878315915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/03/1966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2902118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VANESSA DUARTE MOREIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00615895000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12766642678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14/07/1985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2900079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAZARE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US Nazaré - GDNHNI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANGELICA MICHELE DA SILVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4/10/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00821388002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20685616112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2900008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MORRO DOS SARGENTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US Morro dos Sargentos - GDSCS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARILDE DE OLIVEIRA BUENO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76350541049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12590676680</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2900009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARTA BITTENCOURT BARCELLOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/1/2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97744719034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12898162673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2900015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARINES VAZ WOLMANN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3/2/2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55661491034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12272876341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2900016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELINARA FAGUNDES MUNHOZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7/17/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91454778091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20116604616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2900674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JAQUELINE FAGUNDES HARTWIG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02592303081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13121633715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2900013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DARCILLA PINHEIRO CAMPOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89179579000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12580778707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (1 maior)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18/06/1977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2900014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROSANI TERESINHA PINTO DA SILVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73026611034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12024503316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09/10/1959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2901765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VANESSA ROCHA MACIEL OLIVEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00793287090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16045953356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2901105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CELIA REGINA CAMPOS COSTA DE SOUZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71483349004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12406529411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2900465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MORRO DA CRUZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US Morro da Cruz - GDPLP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRASIELE REGINA CENTENO PATRICIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7/24/2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02242221043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21055837703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2900579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEDIA DEISE DA SILVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/10/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48818410091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12331468852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2901183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CATARINA DORNELLES GONCALVES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/15/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00886014042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12969224676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2901205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALEXSANDRO SILVA DA SILVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4/6/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74795988072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12589094681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2901180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADRIANA ROSA DA SILVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63270137087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12453241887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21/10/1974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2900568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLAUDIA RAQUEL IDALGO DE FARIAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92157033068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19018962263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/06/1975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2901434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRANCESCA CARLA CENTENO PATRICIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80419151087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12634529718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25/11/1980</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2901196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GISLAINE ALVES DA COSTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90577655000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12521958389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09/06/1978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2903697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARISTELA GIACOMINI CASTRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74820052004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12599603694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13/08/1977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2901760</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUELI TERESINHA DA SILVA SANTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1760</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88336913068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20393112130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17/07/1965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2900012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MORADAS DA HIPICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US Moradas da Hípica - GDSCS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLEITON SANTOS DOS PASSOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6/2/2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43626637034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10861459404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2900021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUCIANE CARDOSO THOME FRANCISCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/25/2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58371834004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12272768476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2901212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMADEU PIO DE ALMEIDA NETO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/15/2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92888852004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12614398677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2901214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAISY DE LIMA BARRES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76458695004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12484045230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12/01/1977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2901785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HILDA NARA RIBEIRO SULZBACH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62724070097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12433174254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 maiores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14/12/1971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2902391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVONETE APARECIDA DOS SANTOS OLIVEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54310008020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12511288941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16/08/1964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2902366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KELLY LUCAS ARAUJO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90885171004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12560264503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03/08/1975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2902385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LETICIA SANT ANNA CANTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97130443049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12871137686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13/04/1981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2901354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROSEMERI MENEZES FONTES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49191586020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12294604557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30/09/1967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2901386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANGELA MARIA DE SOUZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/6/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96961899072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12834019713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2901773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VERA REGINA FRAGA CONTESSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31577474015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10850058373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24/03/1960</t>
   </si>
   <si>
     <t xml:space="preserve">2901456</t>
@@ -25961,7 +25961,7 @@
         <v>22529</v>
       </c>
       <c r="U112" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="113">
@@ -34251,7 +34251,7 @@
         <v>32022</v>
       </c>
       <c r="U254" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="255">
@@ -42999,41 +42999,41 @@
         <v>2555</v>
       </c>
       <c r="B405" t="s">
-        <v>2507</v>
+        <v>2556</v>
       </c>
       <c r="C405" t="s">
-        <v>2508</v>
+        <v>2557</v>
       </c>
       <c r="D405" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="E405"/>
       <c r="F405" t="s">
-        <v>66</v>
+        <v>2559</v>
       </c>
       <c r="G405" t="s">
-        <v>2557</v>
+        <v>2560</v>
       </c>
       <c r="H405" s="1" t="n">
-        <v>40954</v>
+        <v>40953</v>
       </c>
       <c r="I405" t="s">
         <v>27</v>
       </c>
       <c r="J405" t="s">
-        <v>2558</v>
+        <v>2561</v>
       </c>
       <c r="K405" t="s">
-        <v>2559</v>
+        <v>2562</v>
       </c>
       <c r="L405" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M405" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N405" t="s">
-        <v>2560</v>
+        <v>32</v>
       </c>
       <c r="O405" t="s">
         <v>33</v>
@@ -43046,24 +43046,20 @@
       </c>
       <c r="R405"/>
       <c r="S405" t="b">
-        <v>1</v>
-      </c>
-      <c r="T405" s="1" t="n">
-        <v>27792</v>
-      </c>
-      <c r="U405" t="n">
-        <v>45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T405" s="1"/>
+      <c r="U405"/>
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>2561</v>
+        <v>2563</v>
       </c>
       <c r="B406" t="s">
-        <v>2562</v>
+        <v>2556</v>
       </c>
       <c r="C406" t="s">
-        <v>2563</v>
+        <v>2557</v>
       </c>
       <c r="D406" t="s">
         <v>2564</v>
@@ -43076,7 +43072,7 @@
         <v>2566</v>
       </c>
       <c r="H406" s="1" t="n">
-        <v>40953</v>
+        <v>40940</v>
       </c>
       <c r="I406" t="s">
         <v>27</v>
@@ -43088,7 +43084,7 @@
         <v>2568</v>
       </c>
       <c r="L406" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="M406" t="s">
         <v>31</v>
@@ -43117,10 +43113,10 @@
         <v>2569</v>
       </c>
       <c r="B407" t="s">
-        <v>2562</v>
+        <v>2556</v>
       </c>
       <c r="C407" t="s">
-        <v>2563</v>
+        <v>2557</v>
       </c>
       <c r="D407" t="s">
         <v>2570</v>
@@ -43133,7 +43129,7 @@
         <v>2572</v>
       </c>
       <c r="H407" s="1" t="n">
-        <v>40940</v>
+        <v>41218</v>
       </c>
       <c r="I407" t="s">
         <v>27</v>
@@ -43145,7 +43141,7 @@
         <v>2574</v>
       </c>
       <c r="L407" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="M407" t="s">
         <v>31</v>
@@ -43174,10 +43170,10 @@
         <v>2575</v>
       </c>
       <c r="B408" t="s">
-        <v>2562</v>
+        <v>2556</v>
       </c>
       <c r="C408" t="s">
-        <v>2563</v>
+        <v>2557</v>
       </c>
       <c r="D408" t="s">
         <v>2576</v>
@@ -43190,7 +43186,7 @@
         <v>2578</v>
       </c>
       <c r="H408" s="1" t="n">
-        <v>41218</v>
+        <v>41226</v>
       </c>
       <c r="I408" t="s">
         <v>27</v>
@@ -43202,7 +43198,7 @@
         <v>2580</v>
       </c>
       <c r="L408" t="s">
-        <v>47</v>
+        <v>519</v>
       </c>
       <c r="M408" t="s">
         <v>31</v>
@@ -43231,41 +43227,41 @@
         <v>2581</v>
       </c>
       <c r="B409" t="s">
-        <v>2562</v>
+        <v>2556</v>
       </c>
       <c r="C409" t="s">
-        <v>2563</v>
+        <v>2557</v>
       </c>
       <c r="D409" t="s">
         <v>2582</v>
       </c>
       <c r="E409"/>
       <c r="F409" t="s">
+        <v>66</v>
+      </c>
+      <c r="G409" t="s">
         <v>2583</v>
       </c>
-      <c r="G409" t="s">
+      <c r="H409" s="1" t="n">
+        <v>40940</v>
+      </c>
+      <c r="I409" t="s">
+        <v>27</v>
+      </c>
+      <c r="J409" t="s">
         <v>2584</v>
       </c>
-      <c r="H409" s="1" t="n">
-        <v>41226</v>
-      </c>
-      <c r="I409" t="s">
-        <v>27</v>
-      </c>
-      <c r="J409" t="s">
+      <c r="K409" t="s">
         <v>2585</v>
       </c>
-      <c r="K409" t="s">
+      <c r="L409" t="s">
+        <v>47</v>
+      </c>
+      <c r="M409" t="s">
+        <v>479</v>
+      </c>
+      <c r="N409" t="s">
         <v>2586</v>
-      </c>
-      <c r="L409" t="s">
-        <v>519</v>
-      </c>
-      <c r="M409" t="s">
-        <v>31</v>
-      </c>
-      <c r="N409" t="s">
-        <v>32</v>
       </c>
       <c r="O409" t="s">
         <v>33</v>
@@ -43278,20 +43274,24 @@
       </c>
       <c r="R409"/>
       <c r="S409" t="b">
-        <v>0</v>
-      </c>
-      <c r="T409" s="1"/>
-      <c r="U409"/>
+        <v>1</v>
+      </c>
+      <c r="T409" s="1" t="n">
+        <v>30059</v>
+      </c>
+      <c r="U409" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="s">
         <v>2587</v>
       </c>
       <c r="B410" t="s">
-        <v>2562</v>
+        <v>2556</v>
       </c>
       <c r="C410" t="s">
-        <v>2563</v>
+        <v>2557</v>
       </c>
       <c r="D410" t="s">
         <v>2588</v>
@@ -43304,7 +43304,7 @@
         <v>2589</v>
       </c>
       <c r="H410" s="1" t="n">
-        <v>40940</v>
+        <v>40947</v>
       </c>
       <c r="I410" t="s">
         <v>27</v>
@@ -43319,7 +43319,7 @@
         <v>47</v>
       </c>
       <c r="M410" t="s">
-        <v>479</v>
+        <v>55</v>
       </c>
       <c r="N410" t="s">
         <v>2592</v>
@@ -43338,10 +43338,10 @@
         <v>1</v>
       </c>
       <c r="T410" s="1" t="n">
-        <v>30059</v>
+        <v>24603</v>
       </c>
       <c r="U410" t="n">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="411">
@@ -43349,10 +43349,10 @@
         <v>2593</v>
       </c>
       <c r="B411" t="s">
-        <v>2562</v>
+        <v>2556</v>
       </c>
       <c r="C411" t="s">
-        <v>2563</v>
+        <v>2557</v>
       </c>
       <c r="D411" t="s">
         <v>2594</v>
@@ -43365,7 +43365,7 @@
         <v>2595</v>
       </c>
       <c r="H411" s="1" t="n">
-        <v>40947</v>
+        <v>40940</v>
       </c>
       <c r="I411" t="s">
         <v>27</v>
@@ -43399,10 +43399,10 @@
         <v>1</v>
       </c>
       <c r="T411" s="1" t="n">
-        <v>24603</v>
+        <v>24116</v>
       </c>
       <c r="U411" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="412">
@@ -43410,10 +43410,10 @@
         <v>2599</v>
       </c>
       <c r="B412" t="s">
-        <v>2562</v>
+        <v>2556</v>
       </c>
       <c r="C412" t="s">
-        <v>2563</v>
+        <v>2557</v>
       </c>
       <c r="D412" t="s">
         <v>2600</v>
@@ -43460,7 +43460,7 @@
         <v>1</v>
       </c>
       <c r="T412" s="1" t="n">
-        <v>24116</v>
+        <v>24095</v>
       </c>
       <c r="U412" t="n">
         <v>55</v>
@@ -43471,23 +43471,21 @@
         <v>2605</v>
       </c>
       <c r="B413" t="s">
-        <v>2562</v>
+        <v>2556</v>
       </c>
       <c r="C413" t="s">
-        <v>2563</v>
+        <v>2557</v>
       </c>
       <c r="D413" t="s">
         <v>2606</v>
       </c>
       <c r="E413"/>
-      <c r="F413" t="s">
-        <v>66</v>
-      </c>
+      <c r="F413"/>
       <c r="G413" t="s">
         <v>2607</v>
       </c>
       <c r="H413" s="1" t="n">
-        <v>40940</v>
+        <v>41171</v>
       </c>
       <c r="I413" t="s">
         <v>27</v>
@@ -43521,7 +43519,7 @@
         <v>1</v>
       </c>
       <c r="T413" s="1" t="n">
-        <v>24095</v>
+        <v>24173</v>
       </c>
       <c r="U413" t="n">
         <v>55</v>
@@ -43532,10 +43530,10 @@
         <v>2611</v>
       </c>
       <c r="B414" t="s">
-        <v>2562</v>
+        <v>2556</v>
       </c>
       <c r="C414" t="s">
-        <v>2563</v>
+        <v>2557</v>
       </c>
       <c r="D414" t="s">
         <v>2612</v>
@@ -43546,7 +43544,7 @@
         <v>2613</v>
       </c>
       <c r="H414" s="1" t="n">
-        <v>41171</v>
+        <v>41709</v>
       </c>
       <c r="I414" t="s">
         <v>27</v>
@@ -43580,10 +43578,10 @@
         <v>1</v>
       </c>
       <c r="T414" s="1" t="n">
-        <v>24173</v>
+        <v>31242</v>
       </c>
       <c r="U414" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="415">
@@ -43591,39 +43589,41 @@
         <v>2617</v>
       </c>
       <c r="B415" t="s">
-        <v>2562</v>
+        <v>2618</v>
       </c>
       <c r="C415" t="s">
-        <v>2563</v>
+        <v>2619</v>
       </c>
       <c r="D415" t="s">
-        <v>2618</v>
+        <v>2620</v>
       </c>
       <c r="E415"/>
-      <c r="F415"/>
+      <c r="F415" t="s">
+        <v>2621</v>
+      </c>
       <c r="G415" t="s">
-        <v>2619</v>
+        <v>2622</v>
       </c>
       <c r="H415" s="1" t="n">
-        <v>41709</v>
+        <v>40940</v>
       </c>
       <c r="I415" t="s">
         <v>27</v>
       </c>
       <c r="J415" t="s">
-        <v>2620</v>
+        <v>2623</v>
       </c>
       <c r="K415" t="s">
-        <v>2621</v>
+        <v>2624</v>
       </c>
       <c r="L415" t="s">
         <v>47</v>
       </c>
       <c r="M415" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="N415" t="s">
-        <v>2622</v>
+        <v>32</v>
       </c>
       <c r="O415" t="s">
         <v>33</v>
@@ -43636,34 +43636,30 @@
       </c>
       <c r="R415"/>
       <c r="S415" t="b">
-        <v>1</v>
-      </c>
-      <c r="T415" s="1" t="n">
-        <v>31242</v>
-      </c>
-      <c r="U415" t="n">
-        <v>36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T415" s="1"/>
+      <c r="U415"/>
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>2623</v>
+        <v>2625</v>
       </c>
       <c r="B416" t="s">
-        <v>2624</v>
+        <v>2626</v>
       </c>
       <c r="C416" t="s">
-        <v>2625</v>
+        <v>2627</v>
       </c>
       <c r="D416" t="s">
-        <v>2626</v>
+        <v>2628</v>
       </c>
       <c r="E416"/>
       <c r="F416" t="s">
-        <v>2627</v>
+        <v>109</v>
       </c>
       <c r="G416" t="s">
-        <v>2628</v>
+        <v>2629</v>
       </c>
       <c r="H416" s="1" t="n">
         <v>40940</v>
@@ -43672,10 +43668,10 @@
         <v>27</v>
       </c>
       <c r="J416" t="s">
-        <v>2629</v>
+        <v>2630</v>
       </c>
       <c r="K416" t="s">
-        <v>2630</v>
+        <v>2631</v>
       </c>
       <c r="L416" t="s">
         <v>47</v>
@@ -43704,20 +43700,20 @@
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="B417" t="s">
-        <v>2632</v>
+        <v>2626</v>
       </c>
       <c r="C417" t="s">
+        <v>2627</v>
+      </c>
+      <c r="D417" t="s">
         <v>2633</v>
-      </c>
-      <c r="D417" t="s">
-        <v>2634</v>
       </c>
       <c r="E417"/>
       <c r="F417" t="s">
-        <v>109</v>
+        <v>2634</v>
       </c>
       <c r="G417" t="s">
         <v>2635</v>
@@ -43735,7 +43731,7 @@
         <v>2637</v>
       </c>
       <c r="L417" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M417" t="s">
         <v>31</v>
@@ -43764,10 +43760,10 @@
         <v>2638</v>
       </c>
       <c r="B418" t="s">
-        <v>2632</v>
+        <v>2626</v>
       </c>
       <c r="C418" t="s">
-        <v>2633</v>
+        <v>2627</v>
       </c>
       <c r="D418" t="s">
         <v>2639</v>
@@ -43792,7 +43788,7 @@
         <v>2643</v>
       </c>
       <c r="L418" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="M418" t="s">
         <v>31</v>
@@ -43821,10 +43817,10 @@
         <v>2644</v>
       </c>
       <c r="B419" t="s">
-        <v>2632</v>
+        <v>2626</v>
       </c>
       <c r="C419" t="s">
-        <v>2633</v>
+        <v>2627</v>
       </c>
       <c r="D419" t="s">
         <v>2645</v>
@@ -43849,7 +43845,7 @@
         <v>2649</v>
       </c>
       <c r="L419" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="M419" t="s">
         <v>31</v>
@@ -43878,32 +43874,32 @@
         <v>2650</v>
       </c>
       <c r="B420" t="s">
-        <v>2632</v>
+        <v>2626</v>
       </c>
       <c r="C420" t="s">
-        <v>2633</v>
+        <v>2627</v>
       </c>
       <c r="D420" t="s">
         <v>2651</v>
       </c>
       <c r="E420"/>
       <c r="F420" t="s">
+        <v>2646</v>
+      </c>
+      <c r="G420" t="s">
         <v>2652</v>
       </c>
-      <c r="G420" t="s">
+      <c r="H420" s="1" t="n">
+        <v>41169</v>
+      </c>
+      <c r="I420" t="s">
+        <v>27</v>
+      </c>
+      <c r="J420" t="s">
         <v>2653</v>
       </c>
-      <c r="H420" s="1" t="n">
-        <v>40940</v>
-      </c>
-      <c r="I420" t="s">
-        <v>27</v>
-      </c>
-      <c r="J420" t="s">
+      <c r="K420" t="s">
         <v>2654</v>
-      </c>
-      <c r="K420" t="s">
-        <v>2655</v>
       </c>
       <c r="L420" t="s">
         <v>47</v>
@@ -43932,44 +43928,44 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
+        <v>2655</v>
+      </c>
+      <c r="B421" t="s">
+        <v>2626</v>
+      </c>
+      <c r="C421" t="s">
+        <v>2627</v>
+      </c>
+      <c r="D421" t="s">
         <v>2656</v>
-      </c>
-      <c r="B421" t="s">
-        <v>2632</v>
-      </c>
-      <c r="C421" t="s">
-        <v>2633</v>
-      </c>
-      <c r="D421" t="s">
-        <v>2657</v>
       </c>
       <c r="E421"/>
       <c r="F421" t="s">
-        <v>2652</v>
+        <v>66</v>
       </c>
       <c r="G421" t="s">
+        <v>2657</v>
+      </c>
+      <c r="H421" s="1" t="n">
+        <v>40940</v>
+      </c>
+      <c r="I421" t="s">
+        <v>27</v>
+      </c>
+      <c r="J421" t="s">
         <v>2658</v>
       </c>
-      <c r="H421" s="1" t="n">
-        <v>41169</v>
-      </c>
-      <c r="I421" t="s">
-        <v>27</v>
-      </c>
-      <c r="J421" t="s">
+      <c r="K421" t="s">
         <v>2659</v>
-      </c>
-      <c r="K421" t="s">
-        <v>2660</v>
       </c>
       <c r="L421" t="s">
         <v>47</v>
       </c>
       <c r="M421" t="s">
-        <v>31</v>
+        <v>2660</v>
       </c>
       <c r="N421" t="s">
-        <v>32</v>
+        <v>2661</v>
       </c>
       <c r="O421" t="s">
         <v>33</v>
@@ -43982,30 +43978,34 @@
       </c>
       <c r="R421"/>
       <c r="S421" t="b">
-        <v>0</v>
-      </c>
-      <c r="T421" s="1"/>
-      <c r="U421"/>
+        <v>1</v>
+      </c>
+      <c r="T421" s="1" t="n">
+        <v>28294</v>
+      </c>
+      <c r="U421" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
       <c r="B422" t="s">
-        <v>2632</v>
+        <v>2626</v>
       </c>
       <c r="C422" t="s">
-        <v>2633</v>
+        <v>2627</v>
       </c>
       <c r="D422" t="s">
-        <v>2662</v>
+        <v>2663</v>
       </c>
       <c r="E422"/>
       <c r="F422" t="s">
         <v>66</v>
       </c>
       <c r="G422" t="s">
-        <v>2663</v>
+        <v>2664</v>
       </c>
       <c r="H422" s="1" t="n">
         <v>40940</v>
@@ -44014,16 +44014,16 @@
         <v>27</v>
       </c>
       <c r="J422" t="s">
-        <v>2664</v>
+        <v>2665</v>
       </c>
       <c r="K422" t="s">
-        <v>2665</v>
+        <v>2666</v>
       </c>
       <c r="L422" t="s">
         <v>47</v>
       </c>
       <c r="M422" t="s">
-        <v>2666</v>
+        <v>55</v>
       </c>
       <c r="N422" t="s">
         <v>2667</v>
@@ -44042,10 +44042,10 @@
         <v>1</v>
       </c>
       <c r="T422" s="1" t="n">
-        <v>28294</v>
+        <v>21832</v>
       </c>
       <c r="U422" t="n">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="423">
@@ -44053,23 +44053,23 @@
         <v>2668</v>
       </c>
       <c r="B423" t="s">
-        <v>2632</v>
+        <v>2626</v>
       </c>
       <c r="C423" t="s">
-        <v>2633</v>
+        <v>2627</v>
       </c>
       <c r="D423" t="s">
         <v>2669</v>
       </c>
       <c r="E423"/>
       <c r="F423" t="s">
-        <v>66</v>
+        <v>1286</v>
       </c>
       <c r="G423" t="s">
         <v>2670</v>
       </c>
       <c r="H423" s="1" t="n">
-        <v>40940</v>
+        <v>41554</v>
       </c>
       <c r="I423" t="s">
         <v>27</v>
@@ -44084,10 +44084,10 @@
         <v>47</v>
       </c>
       <c r="M423" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="N423" t="s">
-        <v>2673</v>
+        <v>32</v>
       </c>
       <c r="O423" t="s">
         <v>33</v>
@@ -44100,55 +44100,49 @@
       </c>
       <c r="R423"/>
       <c r="S423" t="b">
-        <v>1</v>
-      </c>
-      <c r="T423" s="1" t="n">
-        <v>21832</v>
-      </c>
-      <c r="U423" t="n">
-        <v>61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T423" s="1"/>
+      <c r="U423"/>
     </row>
     <row r="424">
       <c r="A424" t="s">
+        <v>2673</v>
+      </c>
+      <c r="B424" t="s">
+        <v>2626</v>
+      </c>
+      <c r="C424" t="s">
+        <v>2627</v>
+      </c>
+      <c r="D424" t="s">
         <v>2674</v>
       </c>
-      <c r="B424" t="s">
-        <v>2632</v>
-      </c>
-      <c r="C424" t="s">
-        <v>2633</v>
-      </c>
-      <c r="D424" t="s">
+      <c r="E424"/>
+      <c r="F424"/>
+      <c r="G424" t="s">
         <v>2675</v>
       </c>
-      <c r="E424"/>
-      <c r="F424" t="s">
-        <v>1286</v>
-      </c>
-      <c r="G424" t="s">
+      <c r="H424" s="1" t="n">
+        <v>41256</v>
+      </c>
+      <c r="I424" t="s">
+        <v>27</v>
+      </c>
+      <c r="J424" t="s">
         <v>2676</v>
       </c>
-      <c r="H424" s="1" t="n">
-        <v>41554</v>
-      </c>
-      <c r="I424" t="s">
-        <v>27</v>
-      </c>
-      <c r="J424" t="s">
+      <c r="K424" t="s">
         <v>2677</v>
-      </c>
-      <c r="K424" t="s">
-        <v>2678</v>
       </c>
       <c r="L424" t="s">
         <v>47</v>
       </c>
       <c r="M424" t="s">
-        <v>100</v>
+        <v>813</v>
       </c>
       <c r="N424" t="s">
-        <v>32</v>
+        <v>2010</v>
       </c>
       <c r="O424" t="s">
         <v>33</v>
@@ -44161,49 +44155,55 @@
       </c>
       <c r="R424"/>
       <c r="S424" t="b">
-        <v>0</v>
-      </c>
-      <c r="T424" s="1"/>
-      <c r="U424"/>
+        <v>1</v>
+      </c>
+      <c r="T424" s="1" t="n">
+        <v>27686</v>
+      </c>
+      <c r="U424" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="s">
+        <v>2678</v>
+      </c>
+      <c r="B425" t="s">
         <v>2679</v>
       </c>
-      <c r="B425" t="s">
-        <v>2632</v>
-      </c>
       <c r="C425" t="s">
-        <v>2633</v>
+        <v>2680</v>
       </c>
       <c r="D425" t="s">
-        <v>2680</v>
+        <v>2681</v>
       </c>
       <c r="E425"/>
-      <c r="F425"/>
+      <c r="F425" t="s">
+        <v>2682</v>
+      </c>
       <c r="G425" t="s">
-        <v>2681</v>
+        <v>2683</v>
       </c>
       <c r="H425" s="1" t="n">
-        <v>41256</v>
+        <v>41185</v>
       </c>
       <c r="I425" t="s">
         <v>27</v>
       </c>
       <c r="J425" t="s">
-        <v>2682</v>
+        <v>2684</v>
       </c>
       <c r="K425" t="s">
-        <v>2683</v>
+        <v>2685</v>
       </c>
       <c r="L425" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="M425" t="s">
-        <v>813</v>
+        <v>31</v>
       </c>
       <c r="N425" t="s">
-        <v>2010</v>
+        <v>32</v>
       </c>
       <c r="O425" t="s">
         <v>33</v>
@@ -44216,24 +44216,20 @@
       </c>
       <c r="R425"/>
       <c r="S425" t="b">
-        <v>1</v>
-      </c>
-      <c r="T425" s="1" t="n">
-        <v>27686</v>
-      </c>
-      <c r="U425" t="n">
-        <v>45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T425" s="1"/>
+      <c r="U425"/>
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>2684</v>
+        <v>2686</v>
       </c>
       <c r="B426" t="s">
-        <v>2685</v>
+        <v>2679</v>
       </c>
       <c r="C426" t="s">
-        <v>2686</v>
+        <v>2680</v>
       </c>
       <c r="D426" t="s">
         <v>2687</v>
@@ -44246,7 +44242,7 @@
         <v>2689</v>
       </c>
       <c r="H426" s="1" t="n">
-        <v>41185</v>
+        <v>41334</v>
       </c>
       <c r="I426" t="s">
         <v>27</v>
@@ -44258,7 +44254,7 @@
         <v>2691</v>
       </c>
       <c r="L426" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="M426" t="s">
         <v>31</v>
@@ -44287,10 +44283,10 @@
         <v>2692</v>
       </c>
       <c r="B427" t="s">
-        <v>2685</v>
+        <v>2679</v>
       </c>
       <c r="C427" t="s">
-        <v>2686</v>
+        <v>2680</v>
       </c>
       <c r="D427" t="s">
         <v>2693</v>
@@ -44344,10 +44340,10 @@
         <v>2698</v>
       </c>
       <c r="B428" t="s">
-        <v>2685</v>
+        <v>2679</v>
       </c>
       <c r="C428" t="s">
-        <v>2686</v>
+        <v>2680</v>
       </c>
       <c r="D428" t="s">
         <v>2699</v>
@@ -44360,7 +44356,7 @@
         <v>2701</v>
       </c>
       <c r="H428" s="1" t="n">
-        <v>41334</v>
+        <v>41296</v>
       </c>
       <c r="I428" t="s">
         <v>27</v>
@@ -44401,41 +44397,39 @@
         <v>2704</v>
       </c>
       <c r="B429" t="s">
-        <v>2685</v>
+        <v>2679</v>
       </c>
       <c r="C429" t="s">
-        <v>2686</v>
+        <v>2680</v>
       </c>
       <c r="D429" t="s">
         <v>2705</v>
       </c>
       <c r="E429"/>
-      <c r="F429" t="s">
+      <c r="F429"/>
+      <c r="G429" t="s">
         <v>2706</v>
       </c>
-      <c r="G429" t="s">
+      <c r="H429" s="1" t="n">
+        <v>41386</v>
+      </c>
+      <c r="I429" t="s">
+        <v>27</v>
+      </c>
+      <c r="J429" t="s">
         <v>2707</v>
       </c>
-      <c r="H429" s="1" t="n">
-        <v>41296</v>
-      </c>
-      <c r="I429" t="s">
-        <v>27</v>
-      </c>
-      <c r="J429" t="s">
+      <c r="K429" t="s">
         <v>2708</v>
       </c>
-      <c r="K429" t="s">
+      <c r="L429" t="s">
+        <v>47</v>
+      </c>
+      <c r="M429" t="s">
+        <v>48</v>
+      </c>
+      <c r="N429" t="s">
         <v>2709</v>
-      </c>
-      <c r="L429" t="s">
-        <v>92</v>
-      </c>
-      <c r="M429" t="s">
-        <v>31</v>
-      </c>
-      <c r="N429" t="s">
-        <v>32</v>
       </c>
       <c r="O429" t="s">
         <v>33</v>
@@ -44448,20 +44442,24 @@
       </c>
       <c r="R429"/>
       <c r="S429" t="b">
-        <v>0</v>
-      </c>
-      <c r="T429" s="1"/>
-      <c r="U429"/>
+        <v>1</v>
+      </c>
+      <c r="T429" s="1" t="n">
+        <v>27323</v>
+      </c>
+      <c r="U429" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="s">
         <v>2710</v>
       </c>
       <c r="B430" t="s">
-        <v>2685</v>
+        <v>2679</v>
       </c>
       <c r="C430" t="s">
-        <v>2686</v>
+        <v>2680</v>
       </c>
       <c r="D430" t="s">
         <v>2711</v>
@@ -44472,7 +44470,7 @@
         <v>2712</v>
       </c>
       <c r="H430" s="1" t="n">
-        <v>41386</v>
+        <v>41176</v>
       </c>
       <c r="I430" t="s">
         <v>27</v>
@@ -44487,7 +44485,7 @@
         <v>47</v>
       </c>
       <c r="M430" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="N430" t="s">
         <v>2715</v>
@@ -44506,7 +44504,7 @@
         <v>1</v>
       </c>
       <c r="T430" s="1" t="n">
-        <v>27323</v>
+        <v>27556</v>
       </c>
       <c r="U430" t="n">
         <v>46</v>
@@ -44517,10 +44515,10 @@
         <v>2716</v>
       </c>
       <c r="B431" t="s">
-        <v>2685</v>
+        <v>2679</v>
       </c>
       <c r="C431" t="s">
-        <v>2686</v>
+        <v>2680</v>
       </c>
       <c r="D431" t="s">
         <v>2717</v>
@@ -44531,7 +44529,7 @@
         <v>2718</v>
       </c>
       <c r="H431" s="1" t="n">
-        <v>41176</v>
+        <v>41428</v>
       </c>
       <c r="I431" t="s">
         <v>27</v>
@@ -44546,7 +44544,7 @@
         <v>47</v>
       </c>
       <c r="M431" t="s">
-        <v>55</v>
+        <v>1620</v>
       </c>
       <c r="N431" t="s">
         <v>2721</v>
@@ -44565,10 +44563,10 @@
         <v>1</v>
       </c>
       <c r="T431" s="1" t="n">
-        <v>27556</v>
+        <v>29550</v>
       </c>
       <c r="U431" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="432">
@@ -44576,10 +44574,10 @@
         <v>2722</v>
       </c>
       <c r="B432" t="s">
-        <v>2685</v>
+        <v>2679</v>
       </c>
       <c r="C432" t="s">
-        <v>2686</v>
+        <v>2680</v>
       </c>
       <c r="D432" t="s">
         <v>2723</v>
@@ -44590,7 +44588,7 @@
         <v>2724</v>
       </c>
       <c r="H432" s="1" t="n">
-        <v>41428</v>
+        <v>41291</v>
       </c>
       <c r="I432" t="s">
         <v>27</v>
@@ -44605,7 +44603,7 @@
         <v>47</v>
       </c>
       <c r="M432" t="s">
-        <v>1620</v>
+        <v>70</v>
       </c>
       <c r="N432" t="s">
         <v>2727</v>
@@ -44624,10 +44622,10 @@
         <v>1</v>
       </c>
       <c r="T432" s="1" t="n">
-        <v>29550</v>
+        <v>28650</v>
       </c>
       <c r="U432" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="433">
@@ -44635,10 +44633,10 @@
         <v>2728</v>
       </c>
       <c r="B433" t="s">
-        <v>2685</v>
+        <v>2679</v>
       </c>
       <c r="C433" t="s">
-        <v>2686</v>
+        <v>2680</v>
       </c>
       <c r="D433" t="s">
         <v>2729</v>
@@ -44649,7 +44647,7 @@
         <v>2730</v>
       </c>
       <c r="H433" s="1" t="n">
-        <v>41291</v>
+        <v>43536</v>
       </c>
       <c r="I433" t="s">
         <v>27</v>
@@ -44664,7 +44662,7 @@
         <v>47</v>
       </c>
       <c r="M433" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="N433" t="s">
         <v>2733</v>
@@ -44683,10 +44681,10 @@
         <v>1</v>
       </c>
       <c r="T433" s="1" t="n">
-        <v>28650</v>
+        <v>28350</v>
       </c>
       <c r="U433" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="434">
@@ -44694,10 +44692,10 @@
         <v>2734</v>
       </c>
       <c r="B434" t="s">
-        <v>2685</v>
+        <v>2679</v>
       </c>
       <c r="C434" t="s">
-        <v>2686</v>
+        <v>2680</v>
       </c>
       <c r="D434" t="s">
         <v>2735</v>
@@ -44708,7 +44706,7 @@
         <v>2736</v>
       </c>
       <c r="H434" s="1" t="n">
-        <v>43536</v>
+        <v>41582</v>
       </c>
       <c r="I434" t="s">
         <v>27</v>
@@ -44723,7 +44721,7 @@
         <v>47</v>
       </c>
       <c r="M434" t="s">
-        <v>48</v>
+        <v>479</v>
       </c>
       <c r="N434" t="s">
         <v>2739</v>
@@ -44742,10 +44740,10 @@
         <v>1</v>
       </c>
       <c r="T434" s="1" t="n">
-        <v>28350</v>
+        <v>23940</v>
       </c>
       <c r="U434" t="n">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="435">
@@ -44753,39 +44751,41 @@
         <v>2740</v>
       </c>
       <c r="B435" t="s">
-        <v>2685</v>
+        <v>2741</v>
       </c>
       <c r="C435" t="s">
-        <v>2686</v>
+        <v>2742</v>
       </c>
       <c r="D435" t="s">
-        <v>2741</v>
+        <v>2743</v>
       </c>
       <c r="E435"/>
-      <c r="F435"/>
+      <c r="F435" t="s">
+        <v>2744</v>
+      </c>
       <c r="G435" t="s">
-        <v>2742</v>
+        <v>2745</v>
       </c>
       <c r="H435" s="1" t="n">
-        <v>41582</v>
+        <v>40940</v>
       </c>
       <c r="I435" t="s">
         <v>27</v>
       </c>
       <c r="J435" t="s">
-        <v>2743</v>
+        <v>2746</v>
       </c>
       <c r="K435" t="s">
-        <v>2744</v>
+        <v>2747</v>
       </c>
       <c r="L435" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="M435" t="s">
-        <v>479</v>
+        <v>31</v>
       </c>
       <c r="N435" t="s">
-        <v>2745</v>
+        <v>32</v>
       </c>
       <c r="O435" t="s">
         <v>33</v>
@@ -44798,24 +44798,20 @@
       </c>
       <c r="R435"/>
       <c r="S435" t="b">
-        <v>1</v>
-      </c>
-      <c r="T435" s="1" t="n">
-        <v>23940</v>
-      </c>
-      <c r="U435" t="n">
-        <v>56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T435" s="1"/>
+      <c r="U435"/>
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>2746</v>
+        <v>2748</v>
       </c>
       <c r="B436" t="s">
-        <v>2747</v>
+        <v>2741</v>
       </c>
       <c r="C436" t="s">
-        <v>2748</v>
+        <v>2742</v>
       </c>
       <c r="D436" t="s">
         <v>2749</v>
@@ -44840,7 +44836,7 @@
         <v>2753</v>
       </c>
       <c r="L436" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="M436" t="s">
         <v>31</v>
@@ -44869,10 +44865,10 @@
         <v>2754</v>
       </c>
       <c r="B437" t="s">
-        <v>2747</v>
+        <v>2741</v>
       </c>
       <c r="C437" t="s">
-        <v>2748</v>
+        <v>2742</v>
       </c>
       <c r="D437" t="s">
         <v>2755</v>
@@ -44885,7 +44881,7 @@
         <v>2757</v>
       </c>
       <c r="H437" s="1" t="n">
-        <v>40940</v>
+        <v>41379</v>
       </c>
       <c r="I437" t="s">
         <v>27</v>
@@ -44897,7 +44893,7 @@
         <v>2759</v>
       </c>
       <c r="L437" t="s">
-        <v>170</v>
+        <v>30</v>
       </c>
       <c r="M437" t="s">
         <v>31</v>
@@ -44926,41 +44922,39 @@
         <v>2760</v>
       </c>
       <c r="B438" t="s">
-        <v>2747</v>
+        <v>2741</v>
       </c>
       <c r="C438" t="s">
-        <v>2748</v>
+        <v>2742</v>
       </c>
       <c r="D438" t="s">
         <v>2761</v>
       </c>
       <c r="E438"/>
-      <c r="F438" t="s">
+      <c r="F438"/>
+      <c r="G438" t="s">
         <v>2762</v>
       </c>
-      <c r="G438" t="s">
+      <c r="H438" s="1" t="n">
+        <v>41295</v>
+      </c>
+      <c r="I438" t="s">
+        <v>27</v>
+      </c>
+      <c r="J438" t="s">
         <v>2763</v>
       </c>
-      <c r="H438" s="1" t="n">
-        <v>41379</v>
-      </c>
-      <c r="I438" t="s">
-        <v>27</v>
-      </c>
-      <c r="J438" t="s">
+      <c r="K438" t="s">
         <v>2764</v>
       </c>
-      <c r="K438" t="s">
+      <c r="L438" t="s">
+        <v>47</v>
+      </c>
+      <c r="M438" t="s">
+        <v>241</v>
+      </c>
+      <c r="N438" t="s">
         <v>2765</v>
-      </c>
-      <c r="L438" t="s">
-        <v>30</v>
-      </c>
-      <c r="M438" t="s">
-        <v>31</v>
-      </c>
-      <c r="N438" t="s">
-        <v>32</v>
       </c>
       <c r="O438" t="s">
         <v>33</v>
@@ -44973,20 +44967,24 @@
       </c>
       <c r="R438"/>
       <c r="S438" t="b">
-        <v>0</v>
-      </c>
-      <c r="T438" s="1"/>
-      <c r="U438"/>
+        <v>1</v>
+      </c>
+      <c r="T438" s="1" t="n">
+        <v>28137</v>
+      </c>
+      <c r="U438" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="s">
         <v>2766</v>
       </c>
       <c r="B439" t="s">
-        <v>2747</v>
+        <v>2741</v>
       </c>
       <c r="C439" t="s">
-        <v>2748</v>
+        <v>2742</v>
       </c>
       <c r="D439" t="s">
         <v>2767</v>
@@ -44997,7 +44995,7 @@
         <v>2768</v>
       </c>
       <c r="H439" s="1" t="n">
-        <v>41295</v>
+        <v>41554</v>
       </c>
       <c r="I439" t="s">
         <v>27</v>
@@ -45012,10 +45010,10 @@
         <v>47</v>
       </c>
       <c r="M439" t="s">
-        <v>241</v>
+        <v>2771</v>
       </c>
       <c r="N439" t="s">
-        <v>2771</v>
+        <v>2772</v>
       </c>
       <c r="O439" t="s">
         <v>33</v>
@@ -45031,47 +45029,47 @@
         <v>1</v>
       </c>
       <c r="T439" s="1" t="n">
-        <v>28137</v>
+        <v>26281</v>
       </c>
       <c r="U439" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>2772</v>
+        <v>2773</v>
       </c>
       <c r="B440" t="s">
-        <v>2747</v>
+        <v>2741</v>
       </c>
       <c r="C440" t="s">
-        <v>2748</v>
+        <v>2742</v>
       </c>
       <c r="D440" t="s">
-        <v>2773</v>
+        <v>2774</v>
       </c>
       <c r="E440"/>
       <c r="F440"/>
       <c r="G440" t="s">
-        <v>2774</v>
+        <v>2775</v>
       </c>
       <c r="H440" s="1" t="n">
-        <v>41554</v>
+        <v>41852</v>
       </c>
       <c r="I440" t="s">
         <v>27</v>
       </c>
       <c r="J440" t="s">
-        <v>2775</v>
+        <v>2776</v>
       </c>
       <c r="K440" t="s">
-        <v>2776</v>
+        <v>2777</v>
       </c>
       <c r="L440" t="s">
         <v>47</v>
       </c>
       <c r="M440" t="s">
-        <v>2777</v>
+        <v>55</v>
       </c>
       <c r="N440" t="s">
         <v>2778</v>
@@ -45090,10 +45088,10 @@
         <v>1</v>
       </c>
       <c r="T440" s="1" t="n">
-        <v>26281</v>
+        <v>23605</v>
       </c>
       <c r="U440" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="441">
@@ -45101,10 +45099,10 @@
         <v>2779</v>
       </c>
       <c r="B441" t="s">
-        <v>2747</v>
+        <v>2741</v>
       </c>
       <c r="C441" t="s">
-        <v>2748</v>
+        <v>2742</v>
       </c>
       <c r="D441" t="s">
         <v>2780</v>
@@ -45115,7 +45113,7 @@
         <v>2781</v>
       </c>
       <c r="H441" s="1" t="n">
-        <v>41852</v>
+        <v>41834</v>
       </c>
       <c r="I441" t="s">
         <v>27</v>
@@ -45130,7 +45128,7 @@
         <v>47</v>
       </c>
       <c r="M441" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="N441" t="s">
         <v>2784</v>
@@ -45149,10 +45147,10 @@
         <v>1</v>
       </c>
       <c r="T441" s="1" t="n">
-        <v>23605</v>
+        <v>27609</v>
       </c>
       <c r="U441" t="n">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="442">
@@ -45160,10 +45158,10 @@
         <v>2785</v>
       </c>
       <c r="B442" t="s">
-        <v>2747</v>
+        <v>2741</v>
       </c>
       <c r="C442" t="s">
-        <v>2748</v>
+        <v>2742</v>
       </c>
       <c r="D442" t="s">
         <v>2786</v>
@@ -45174,7 +45172,7 @@
         <v>2787</v>
       </c>
       <c r="H442" s="1" t="n">
-        <v>41834</v>
+        <v>41837</v>
       </c>
       <c r="I442" t="s">
         <v>27</v>
@@ -45208,10 +45206,10 @@
         <v>1</v>
       </c>
       <c r="T442" s="1" t="n">
-        <v>27609</v>
+        <v>29689</v>
       </c>
       <c r="U442" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="443">
@@ -45219,10 +45217,10 @@
         <v>2791</v>
       </c>
       <c r="B443" t="s">
-        <v>2747</v>
+        <v>2741</v>
       </c>
       <c r="C443" t="s">
-        <v>2748</v>
+        <v>2742</v>
       </c>
       <c r="D443" t="s">
         <v>2792</v>
@@ -45233,7 +45231,7 @@
         <v>2793</v>
       </c>
       <c r="H443" s="1" t="n">
-        <v>41837</v>
+        <v>41339</v>
       </c>
       <c r="I443" t="s">
         <v>27</v>
@@ -45248,7 +45246,7 @@
         <v>47</v>
       </c>
       <c r="M443" t="s">
-        <v>32</v>
+        <v>241</v>
       </c>
       <c r="N443" t="s">
         <v>2796</v>
@@ -45267,10 +45265,10 @@
         <v>1</v>
       </c>
       <c r="T443" s="1" t="n">
-        <v>29689</v>
+        <v>24745</v>
       </c>
       <c r="U443" t="n">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="444">
@@ -45278,39 +45276,41 @@
         <v>2797</v>
       </c>
       <c r="B444" t="s">
-        <v>2747</v>
+        <v>2741</v>
       </c>
       <c r="C444" t="s">
-        <v>2748</v>
+        <v>2742</v>
       </c>
       <c r="D444" t="s">
         <v>2798</v>
       </c>
       <c r="E444"/>
-      <c r="F444"/>
+      <c r="F444" t="s">
+        <v>2799</v>
+      </c>
       <c r="G444" t="s">
-        <v>2799</v>
+        <v>2800</v>
       </c>
       <c r="H444" s="1" t="n">
-        <v>41339</v>
+        <v>41359</v>
       </c>
       <c r="I444" t="s">
         <v>27</v>
       </c>
       <c r="J444" t="s">
-        <v>2800</v>
+        <v>2801</v>
       </c>
       <c r="K444" t="s">
-        <v>2801</v>
+        <v>2802</v>
       </c>
       <c r="L444" t="s">
         <v>47</v>
       </c>
       <c r="M444" t="s">
-        <v>241</v>
+        <v>31</v>
       </c>
       <c r="N444" t="s">
-        <v>2802</v>
+        <v>32</v>
       </c>
       <c r="O444" t="s">
         <v>33</v>
@@ -45323,55 +45323,49 @@
       </c>
       <c r="R444"/>
       <c r="S444" t="b">
-        <v>1</v>
-      </c>
-      <c r="T444" s="1" t="n">
-        <v>24745</v>
-      </c>
-      <c r="U444" t="n">
-        <v>53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T444" s="1"/>
+      <c r="U444"/>
     </row>
     <row r="445">
       <c r="A445" t="s">
         <v>2803</v>
       </c>
       <c r="B445" t="s">
-        <v>2747</v>
+        <v>2741</v>
       </c>
       <c r="C445" t="s">
-        <v>2748</v>
+        <v>2742</v>
       </c>
       <c r="D445" t="s">
         <v>2804</v>
       </c>
       <c r="E445"/>
-      <c r="F445" t="s">
+      <c r="F445"/>
+      <c r="G445" t="s">
         <v>2805</v>
       </c>
-      <c r="G445" t="s">
+      <c r="H445" s="1" t="n">
+        <v>41555</v>
+      </c>
+      <c r="I445" t="s">
+        <v>27</v>
+      </c>
+      <c r="J445" t="s">
         <v>2806</v>
       </c>
-      <c r="H445" s="1" t="n">
-        <v>41359</v>
-      </c>
-      <c r="I445" t="s">
-        <v>27</v>
-      </c>
-      <c r="J445" t="s">
+      <c r="K445" t="s">
         <v>2807</v>
-      </c>
-      <c r="K445" t="s">
-        <v>2808</v>
       </c>
       <c r="L445" t="s">
         <v>47</v>
       </c>
       <c r="M445" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="N445" t="s">
-        <v>32</v>
+        <v>2808</v>
       </c>
       <c r="O445" t="s">
         <v>33</v>
@@ -45384,31 +45378,37 @@
       </c>
       <c r="R445"/>
       <c r="S445" t="b">
-        <v>0</v>
-      </c>
-      <c r="T445" s="1"/>
-      <c r="U445"/>
+        <v>1</v>
+      </c>
+      <c r="T445" s="1" t="n">
+        <v>21999</v>
+      </c>
+      <c r="U445" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="s">
         <v>2809</v>
       </c>
       <c r="B446" t="s">
-        <v>2747</v>
+        <v>2741</v>
       </c>
       <c r="C446" t="s">
-        <v>2748</v>
+        <v>2742</v>
       </c>
       <c r="D446" t="s">
         <v>2810</v>
       </c>
       <c r="E446"/>
-      <c r="F446"/>
+      <c r="F446" t="s">
+        <v>66</v>
+      </c>
       <c r="G446" t="s">
         <v>2811</v>
       </c>
       <c r="H446" s="1" t="n">
-        <v>41555</v>
+        <v>40954</v>
       </c>
       <c r="I446" t="s">
         <v>27</v>
@@ -45423,7 +45423,7 @@
         <v>47</v>
       </c>
       <c r="M446" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="N446" t="s">
         <v>2814</v>
@@ -45442,10 +45442,10 @@
         <v>1</v>
       </c>
       <c r="T446" s="1" t="n">
-        <v>21999</v>
+        <v>27792</v>
       </c>
       <c r="U446" t="n">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="447">
@@ -45453,10 +45453,10 @@
         <v>2815</v>
       </c>
       <c r="B447" t="s">
-        <v>2747</v>
+        <v>2741</v>
       </c>
       <c r="C447" t="s">
-        <v>2748</v>
+        <v>2742</v>
       </c>
       <c r="D447" t="s">
         <v>2816</v>
@@ -45510,10 +45510,10 @@
         <v>2821</v>
       </c>
       <c r="B448" t="s">
-        <v>2747</v>
+        <v>2741</v>
       </c>
       <c r="C448" t="s">
-        <v>2748</v>
+        <v>2742</v>
       </c>
       <c r="D448" t="s">
         <v>2822</v>
@@ -45567,10 +45567,10 @@
         <v>2827</v>
       </c>
       <c r="B449" t="s">
-        <v>2747</v>
+        <v>2741</v>
       </c>
       <c r="C449" t="s">
-        <v>2748</v>
+        <v>2742</v>
       </c>
       <c r="D449" t="s">
         <v>2828</v>
@@ -48377,7 +48377,7 @@
         <v>23623</v>
       </c>
       <c r="U496" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="497">
@@ -53741,7 +53741,7 @@
         <v>21071</v>
       </c>
       <c r="U588" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="589">
@@ -54333,7 +54333,7 @@
         <v>27643</v>
       </c>
       <c r="U598" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="599">
@@ -56909,7 +56909,7 @@
       </c>
       <c r="E643"/>
       <c r="F643" t="s">
-        <v>2652</v>
+        <v>2646</v>
       </c>
       <c r="G643" t="s">
         <v>4001</v>
@@ -57249,7 +57249,7 @@
         <v>23625</v>
       </c>
       <c r="U648" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="649">
@@ -62200,7 +62200,7 @@
       </c>
       <c r="E734"/>
       <c r="F734" t="s">
-        <v>2805</v>
+        <v>2799</v>
       </c>
       <c r="G734" t="s">
         <v>4542</v>
@@ -65055,7 +65055,7 @@
       </c>
       <c r="E783"/>
       <c r="F783" t="s">
-        <v>2762</v>
+        <v>2756</v>
       </c>
       <c r="G783" t="s">
         <v>4838</v>
@@ -65289,7 +65289,7 @@
       </c>
       <c r="E787"/>
       <c r="F787" t="s">
-        <v>2646</v>
+        <v>2640</v>
       </c>
       <c r="G787" t="s">
         <v>4861</v>
@@ -65574,7 +65574,7 @@
       </c>
       <c r="E792"/>
       <c r="F792" t="s">
-        <v>2627</v>
+        <v>2621</v>
       </c>
       <c r="G792" t="s">
         <v>4888</v>
@@ -67853,7 +67853,7 @@
         <v>24717</v>
       </c>
       <c r="U830" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="831">
@@ -71614,7 +71614,7 @@
         <v>29101</v>
       </c>
       <c r="U895" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="896">
@@ -74638,7 +74638,7 @@
         <v>47</v>
       </c>
       <c r="M947" t="s">
-        <v>2666</v>
+        <v>2660</v>
       </c>
       <c r="N947" t="s">
         <v>5843</v>
@@ -75297,7 +75297,7 @@
         <v>25453</v>
       </c>
       <c r="U958" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="959">
@@ -75966,7 +75966,7 @@
         <v>32</v>
       </c>
       <c r="N970" t="s">
-        <v>2739</v>
+        <v>2733</v>
       </c>
       <c r="O970" t="s">
         <v>33</v>
@@ -77735,7 +77735,7 @@
         <v>24720</v>
       </c>
       <c r="U1000" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1001">

--- a/report/acs.xlsx
+++ b/report/acs.xlsx
@@ -22442,7 +22442,7 @@
         <v>29165</v>
       </c>
       <c r="U58" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59">
@@ -22733,7 +22733,7 @@
         <v>21861</v>
       </c>
       <c r="U63" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64">
@@ -24786,7 +24786,7 @@
         <v>32089</v>
       </c>
       <c r="U98" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99">
@@ -29379,7 +29379,7 @@
         <v>25881</v>
       </c>
       <c r="U177" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="178">
@@ -30669,7 +30669,7 @@
         <v>20400</v>
       </c>
       <c r="U199" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="200">
@@ -37069,7 +37069,7 @@
         <v>33552</v>
       </c>
       <c r="U309" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="310">
@@ -47528,7 +47528,7 @@
         <v>28438</v>
       </c>
       <c r="U488" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="489">
@@ -48118,7 +48118,7 @@
         <v>31360</v>
       </c>
       <c r="U498" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="499">
@@ -53421,7 +53421,7 @@
         <v>32455</v>
       </c>
       <c r="U589" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="590">
@@ -64530,7 +64530,7 @@
         <v>29900</v>
       </c>
       <c r="U780" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="781">

--- a/report/acs.xlsx
+++ b/report/acs.xlsx
@@ -19255,7 +19255,7 @@
         <v>20851</v>
       </c>
       <c r="U3" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -19491,7 +19491,7 @@
         <v>26693</v>
       </c>
       <c r="U7" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
@@ -19609,7 +19609,7 @@
         <v>26442</v>
       </c>
       <c r="U9" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
@@ -19668,7 +19668,7 @@
         <v>25692</v>
       </c>
       <c r="U10" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11">
@@ -20246,7 +20246,7 @@
         <v>34286</v>
       </c>
       <c r="U20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
@@ -20421,7 +20421,7 @@
         <v>22068</v>
       </c>
       <c r="U23" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24">
@@ -20480,7 +20480,7 @@
         <v>28090</v>
       </c>
       <c r="U24" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25">
@@ -20541,7 +20541,7 @@
         <v>24203</v>
       </c>
       <c r="U25" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26">
@@ -20724,7 +20724,7 @@
         <v>19841</v>
       </c>
       <c r="U28" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29">
@@ -20842,7 +20842,7 @@
         <v>29200</v>
       </c>
       <c r="U30" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31">
@@ -20958,7 +20958,7 @@
         <v>32579</v>
       </c>
       <c r="U32" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33">
@@ -21247,7 +21247,7 @@
         <v>23530</v>
       </c>
       <c r="U37" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38">
@@ -21363,7 +21363,7 @@
         <v>30669</v>
       </c>
       <c r="U39" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40">
@@ -21455,7 +21455,7 @@
         <v>23107</v>
       </c>
       <c r="U41" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42">
@@ -21923,7 +21923,7 @@
         <v>20420</v>
       </c>
       <c r="U49" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50">
@@ -22326,7 +22326,7 @@
         <v>25978</v>
       </c>
       <c r="U56" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57">
@@ -22792,7 +22792,7 @@
         <v>29955</v>
       </c>
       <c r="U64" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65">
@@ -22969,7 +22969,7 @@
         <v>28936</v>
       </c>
       <c r="U67" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68">
@@ -23028,7 +23028,7 @@
         <v>28169</v>
       </c>
       <c r="U68" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69">
@@ -23602,7 +23602,7 @@
         <v>22693</v>
       </c>
       <c r="U78" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79">
@@ -23954,7 +23954,7 @@
         <v>21170</v>
       </c>
       <c r="U84" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85">
@@ -24015,7 +24015,7 @@
         <v>21231</v>
       </c>
       <c r="U85" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="86">
@@ -24133,7 +24133,7 @@
         <v>26696</v>
       </c>
       <c r="U87" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="88">
@@ -24249,7 +24249,7 @@
         <v>28566</v>
       </c>
       <c r="U89" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="90">
@@ -24367,7 +24367,7 @@
         <v>23828</v>
       </c>
       <c r="U91" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="92">
@@ -24483,7 +24483,7 @@
         <v>29313</v>
       </c>
       <c r="U93" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94">
@@ -24544,7 +24544,7 @@
         <v>19863</v>
       </c>
       <c r="U94" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="95">
@@ -24605,7 +24605,7 @@
         <v>22977</v>
       </c>
       <c r="U95" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="96">
@@ -24666,7 +24666,7 @@
         <v>28476</v>
       </c>
       <c r="U96" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="97">
@@ -25256,7 +25256,7 @@
         <v>26350</v>
       </c>
       <c r="U106" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="107">
@@ -25531,7 +25531,7 @@
         <v>23451</v>
       </c>
       <c r="U111" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="112">
@@ -25761,7 +25761,7 @@
         <v>20450</v>
       </c>
       <c r="U115" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="116">
@@ -25879,7 +25879,7 @@
         <v>27038</v>
       </c>
       <c r="U117" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="118">
@@ -25997,7 +25997,7 @@
         <v>22326</v>
       </c>
       <c r="U119" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="120">
@@ -26119,7 +26119,7 @@
         <v>20963</v>
       </c>
       <c r="U121" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="122">
@@ -26178,7 +26178,7 @@
         <v>24570</v>
       </c>
       <c r="U122" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="123">
@@ -26237,7 +26237,7 @@
         <v>30097</v>
       </c>
       <c r="U123" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="124">
@@ -26695,7 +26695,7 @@
         <v>24897</v>
       </c>
       <c r="U131" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="132">
@@ -26754,7 +26754,7 @@
         <v>29383</v>
       </c>
       <c r="U132" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="133">
@@ -26988,7 +26988,7 @@
         <v>28927</v>
       </c>
       <c r="U136" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="137">
@@ -27047,7 +27047,7 @@
         <v>20187</v>
       </c>
       <c r="U137" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="138">
@@ -27277,7 +27277,7 @@
         <v>25651</v>
       </c>
       <c r="U141" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="142">
@@ -27452,7 +27452,7 @@
         <v>22354</v>
       </c>
       <c r="U144" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="145">
@@ -27682,7 +27682,7 @@
         <v>33220</v>
       </c>
       <c r="U148" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="149">
@@ -27743,7 +27743,7 @@
         <v>25926</v>
       </c>
       <c r="U149" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="150">
@@ -28042,7 +28042,7 @@
         <v>19314</v>
       </c>
       <c r="U154" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="155">
@@ -28217,7 +28217,7 @@
         <v>22027</v>
       </c>
       <c r="U157" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="158">
@@ -28335,7 +28335,7 @@
         <v>22087</v>
       </c>
       <c r="U159" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="160">
@@ -28396,7 +28396,7 @@
         <v>20804</v>
       </c>
       <c r="U160" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="161">
@@ -28455,7 +28455,7 @@
         <v>23846</v>
       </c>
       <c r="U161" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="162">
@@ -29261,7 +29261,7 @@
         <v>25365</v>
       </c>
       <c r="U175" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="176">
@@ -29843,7 +29843,7 @@
         <v>28589</v>
       </c>
       <c r="U185" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="186">
@@ -29963,7 +29963,7 @@
         <v>31800</v>
       </c>
       <c r="U187" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="188">
@@ -30085,7 +30085,7 @@
         <v>23468</v>
       </c>
       <c r="U189" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="190">
@@ -30144,7 +30144,7 @@
         <v>25216</v>
       </c>
       <c r="U190" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="191">
@@ -30205,7 +30205,7 @@
         <v>20808</v>
       </c>
       <c r="U191" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="192">
@@ -30551,7 +30551,7 @@
         <v>21722</v>
       </c>
       <c r="U197" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="198">
@@ -30899,7 +30899,7 @@
         <v>27078</v>
       </c>
       <c r="U203" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="204">
@@ -31361,7 +31361,7 @@
         <v>24129</v>
       </c>
       <c r="U211" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="212">
@@ -31420,7 +31420,7 @@
         <v>29938</v>
       </c>
       <c r="U212" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="213">
@@ -31481,7 +31481,7 @@
         <v>29238</v>
       </c>
       <c r="U213" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="214">
@@ -31770,7 +31770,7 @@
         <v>22398</v>
       </c>
       <c r="U218" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="219">
@@ -31829,7 +31829,7 @@
         <v>21536</v>
       </c>
       <c r="U219" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="220">
@@ -31890,7 +31890,7 @@
         <v>27517</v>
       </c>
       <c r="U220" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="221">
@@ -31949,7 +31949,7 @@
         <v>21724</v>
       </c>
       <c r="U221" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="222">
@@ -32122,7 +32122,7 @@
         <v>18675</v>
       </c>
       <c r="U224" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="225">
@@ -32415,7 +32415,7 @@
         <v>20176</v>
       </c>
       <c r="U229" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="230">
@@ -32645,7 +32645,7 @@
         <v>25157</v>
       </c>
       <c r="U233" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="234">
@@ -32704,7 +32704,7 @@
         <v>27922</v>
       </c>
       <c r="U234" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="235">
@@ -32763,7 +32763,7 @@
         <v>28869</v>
       </c>
       <c r="U235" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="236">
@@ -32936,7 +32936,7 @@
         <v>27886</v>
       </c>
       <c r="U238" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="239">
@@ -33054,7 +33054,7 @@
         <v>28661</v>
       </c>
       <c r="U240" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="241">
@@ -33347,7 +33347,7 @@
         <v>27416</v>
       </c>
       <c r="U245" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="246">
@@ -33463,7 +33463,7 @@
         <v>28466</v>
       </c>
       <c r="U247" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="248">
@@ -33522,7 +33522,7 @@
         <v>28577</v>
       </c>
       <c r="U248" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="249">
@@ -33929,7 +33929,7 @@
         <v>28832</v>
       </c>
       <c r="U255" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="256">
@@ -34106,7 +34106,7 @@
         <v>31005</v>
       </c>
       <c r="U258" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="259">
@@ -34222,7 +34222,7 @@
         <v>28535</v>
       </c>
       <c r="U260" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="261">
@@ -34625,7 +34625,7 @@
         <v>25314</v>
       </c>
       <c r="U267" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="268">
@@ -34745,7 +34745,7 @@
         <v>24280</v>
       </c>
       <c r="U269" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="270">
@@ -34804,7 +34804,7 @@
         <v>24514</v>
       </c>
       <c r="U270" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="271">
@@ -34922,7 +34922,7 @@
         <v>29576</v>
       </c>
       <c r="U272" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="273">
@@ -35677,7 +35677,7 @@
         <v>21947</v>
       </c>
       <c r="U285" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="286">
@@ -36654,7 +36654,7 @@
         <v>30657</v>
       </c>
       <c r="U302" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="303">
@@ -36770,7 +36770,7 @@
         <v>34061</v>
       </c>
       <c r="U304" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="305">
@@ -36829,7 +36829,7 @@
         <v>32176</v>
       </c>
       <c r="U305" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="306">
@@ -36890,7 +36890,7 @@
         <v>27131</v>
       </c>
       <c r="U306" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="307">
@@ -37246,7 +37246,7 @@
         <v>30763</v>
       </c>
       <c r="U312" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="313">
@@ -37305,7 +37305,7 @@
         <v>31098</v>
       </c>
       <c r="U313" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="314">
@@ -37771,7 +37771,7 @@
         <v>23899</v>
       </c>
       <c r="U321" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="322">
@@ -38005,7 +38005,7 @@
         <v>20591</v>
       </c>
       <c r="U325" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="326">
@@ -38064,7 +38064,7 @@
         <v>24820</v>
       </c>
       <c r="U326" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="327">
@@ -38243,7 +38243,7 @@
         <v>29214</v>
       </c>
       <c r="U329" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="330">
@@ -38302,7 +38302,7 @@
         <v>23442</v>
       </c>
       <c r="U330" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="331">
@@ -38361,7 +38361,7 @@
         <v>32565</v>
       </c>
       <c r="U331" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="332">
@@ -38420,7 +38420,7 @@
         <v>26753</v>
       </c>
       <c r="U332" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="333">
@@ -38650,7 +38650,7 @@
         <v>23336</v>
       </c>
       <c r="U336" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="337">
@@ -38823,7 +38823,7 @@
         <v>31474</v>
       </c>
       <c r="U339" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="340">
@@ -38939,7 +38939,7 @@
         <v>29299</v>
       </c>
       <c r="U341" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="342">
@@ -39173,7 +39173,7 @@
         <v>31763</v>
       </c>
       <c r="U345" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="346">
@@ -39289,7 +39289,7 @@
         <v>27545</v>
       </c>
       <c r="U347" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="348">
@@ -39350,7 +39350,7 @@
         <v>17229</v>
       </c>
       <c r="U348" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="349">
@@ -39409,7 +39409,7 @@
         <v>25553</v>
       </c>
       <c r="U349" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="350">
@@ -39470,7 +39470,7 @@
         <v>22596</v>
       </c>
       <c r="U350" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="351">
@@ -39588,7 +39588,7 @@
         <v>25153</v>
       </c>
       <c r="U352" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="353">
@@ -39649,7 +39649,7 @@
         <v>23907</v>
       </c>
       <c r="U353" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="354">
@@ -39826,7 +39826,7 @@
         <v>27914</v>
       </c>
       <c r="U356" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="357">
@@ -39999,7 +39999,7 @@
         <v>29998</v>
       </c>
       <c r="U359" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="360">
@@ -40117,7 +40117,7 @@
         <v>32573</v>
       </c>
       <c r="U361" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="362">
@@ -40408,7 +40408,7 @@
         <v>20613</v>
       </c>
       <c r="U366" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="367">
@@ -40469,7 +40469,7 @@
         <v>21943</v>
       </c>
       <c r="U367" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="368">
@@ -40530,7 +40530,7 @@
         <v>22791</v>
       </c>
       <c r="U368" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="369">
@@ -40648,7 +40648,7 @@
         <v>23121</v>
       </c>
       <c r="U370" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="371">
@@ -40707,7 +40707,7 @@
         <v>29673</v>
       </c>
       <c r="U371" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="372">
@@ -40996,7 +40996,7 @@
         <v>32277</v>
       </c>
       <c r="U376" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="377">
@@ -41055,7 +41055,7 @@
         <v>21291</v>
       </c>
       <c r="U377" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="378">
@@ -41684,7 +41684,7 @@
         <v>26711</v>
       </c>
       <c r="U388" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="389">
@@ -41743,7 +41743,7 @@
         <v>24489</v>
       </c>
       <c r="U389" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="390">
@@ -42496,7 +42496,7 @@
         <v>30059</v>
       </c>
       <c r="U402" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="403">
@@ -42557,7 +42557,7 @@
         <v>24603</v>
       </c>
       <c r="U403" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="404">
@@ -42673,7 +42673,7 @@
         <v>24173</v>
       </c>
       <c r="U405" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="406">
@@ -42791,7 +42791,7 @@
         <v>24116</v>
       </c>
       <c r="U407" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="408">
@@ -42852,7 +42852,7 @@
         <v>24095</v>
       </c>
       <c r="U408" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="409">
@@ -43316,7 +43316,7 @@
         <v>28294</v>
       </c>
       <c r="U416" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="417">
@@ -43607,7 +43607,7 @@
         <v>29550</v>
       </c>
       <c r="U421" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="422">
@@ -43666,7 +43666,7 @@
         <v>28650</v>
       </c>
       <c r="U422" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="423">
@@ -44128,7 +44128,7 @@
         <v>28137</v>
       </c>
       <c r="U430" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="431">
@@ -44187,7 +44187,7 @@
         <v>26281</v>
       </c>
       <c r="U431" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="432">
@@ -44364,7 +44364,7 @@
         <v>29689</v>
       </c>
       <c r="U434" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="435">
@@ -44710,7 +44710,7 @@
         <v>27792</v>
       </c>
       <c r="U440" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="441">
@@ -44828,7 +44828,7 @@
         <v>21999</v>
       </c>
       <c r="U442" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="443">
@@ -45117,7 +45117,7 @@
         <v>32181</v>
       </c>
       <c r="U447" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="448">
@@ -45235,7 +45235,7 @@
         <v>28208</v>
       </c>
       <c r="U449" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="450">
@@ -45294,7 +45294,7 @@
         <v>32526</v>
       </c>
       <c r="U450" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="451">
@@ -45467,7 +45467,7 @@
         <v>24912</v>
       </c>
       <c r="U453" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="454">
@@ -45697,7 +45697,7 @@
         <v>34051</v>
       </c>
       <c r="U457" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="458">
@@ -46043,7 +46043,7 @@
         <v>22797</v>
       </c>
       <c r="U463" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="464">
@@ -46161,7 +46161,7 @@
         <v>30090</v>
       </c>
       <c r="U465" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="466">
@@ -46220,7 +46220,7 @@
         <v>33974</v>
       </c>
       <c r="U466" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="467">
@@ -46279,7 +46279,7 @@
         <v>32112</v>
       </c>
       <c r="U467" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="468">
@@ -46338,7 +46338,7 @@
         <v>24099</v>
       </c>
       <c r="U468" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="469">
@@ -46397,7 +46397,7 @@
         <v>29287</v>
       </c>
       <c r="U469" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="470">
@@ -46515,7 +46515,7 @@
         <v>32146</v>
       </c>
       <c r="U471" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="472">
@@ -46751,7 +46751,7 @@
         <v>28807</v>
       </c>
       <c r="U475" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="476">
@@ -46810,7 +46810,7 @@
         <v>27568</v>
       </c>
       <c r="U476" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="477">
@@ -46871,7 +46871,7 @@
         <v>22722</v>
       </c>
       <c r="U477" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="478">
@@ -46989,7 +46989,7 @@
         <v>24057</v>
       </c>
       <c r="U479" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="480">
@@ -47107,7 +47107,7 @@
         <v>26288</v>
       </c>
       <c r="U481" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="482">
@@ -47168,7 +47168,7 @@
         <v>24109</v>
       </c>
       <c r="U482" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="483">
@@ -47288,7 +47288,7 @@
         <v>30832</v>
       </c>
       <c r="U484" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="485">
@@ -47408,7 +47408,7 @@
         <v>29656</v>
       </c>
       <c r="U486" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="487">
@@ -47467,7 +47467,7 @@
         <v>27533</v>
       </c>
       <c r="U487" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="488">
@@ -48000,7 +48000,7 @@
         <v>26030</v>
       </c>
       <c r="U496" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="497">
@@ -48059,7 +48059,7 @@
         <v>23050</v>
       </c>
       <c r="U497" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="498">
@@ -48177,7 +48177,7 @@
         <v>24213</v>
       </c>
       <c r="U499" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="500">
@@ -48407,7 +48407,7 @@
         <v>22235</v>
       </c>
       <c r="U503" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="504">
@@ -48525,7 +48525,7 @@
         <v>33675</v>
       </c>
       <c r="U505" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="506">
@@ -48761,7 +48761,7 @@
         <v>27719</v>
       </c>
       <c r="U509" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="510">
@@ -48879,7 +48879,7 @@
         <v>25324</v>
       </c>
       <c r="U511" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="512">
@@ -48938,7 +48938,7 @@
         <v>29725</v>
       </c>
       <c r="U512" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="513">
@@ -49394,7 +49394,7 @@
         <v>28154</v>
       </c>
       <c r="U520" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="521">
@@ -49453,7 +49453,7 @@
         <v>30712</v>
       </c>
       <c r="U521" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="522">
@@ -49571,7 +49571,7 @@
         <v>21602</v>
       </c>
       <c r="U523" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="524">
@@ -49691,7 +49691,7 @@
         <v>25601</v>
       </c>
       <c r="U525" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="526">
@@ -49750,7 +49750,7 @@
         <v>25164</v>
       </c>
       <c r="U526" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="527">
@@ -49923,7 +49923,7 @@
         <v>34388</v>
       </c>
       <c r="U529" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="530">
@@ -50041,7 +50041,7 @@
         <v>22342</v>
       </c>
       <c r="U531" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="532">
@@ -50100,7 +50100,7 @@
         <v>22687</v>
       </c>
       <c r="U532" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="533">
@@ -50159,7 +50159,7 @@
         <v>23894</v>
       </c>
       <c r="U533" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="534">
@@ -50397,7 +50397,7 @@
         <v>26813</v>
       </c>
       <c r="U537" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="538">
@@ -50456,7 +50456,7 @@
         <v>21716</v>
       </c>
       <c r="U538" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="539">
@@ -50743,7 +50743,7 @@
         <v>31176</v>
       </c>
       <c r="U543" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="544">
@@ -51148,7 +51148,7 @@
         <v>25213</v>
       </c>
       <c r="U550" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="551">
@@ -51445,7 +51445,7 @@
         <v>20165</v>
       </c>
       <c r="U555" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="556">
@@ -51738,7 +51738,7 @@
         <v>30684</v>
       </c>
       <c r="U560" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="561">
@@ -52086,7 +52086,7 @@
         <v>23873</v>
       </c>
       <c r="U566" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="567">
@@ -52145,7 +52145,7 @@
         <v>27000</v>
       </c>
       <c r="U567" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="568">
@@ -52263,7 +52263,7 @@
         <v>27476</v>
       </c>
       <c r="U569" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="570">
@@ -52381,7 +52381,7 @@
         <v>22756</v>
       </c>
       <c r="U571" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="572">
@@ -52955,7 +52955,7 @@
         <v>22393</v>
       </c>
       <c r="U581" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="582">
@@ -53014,7 +53014,7 @@
         <v>25890</v>
       </c>
       <c r="U582" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="583">
@@ -53073,7 +53073,7 @@
         <v>25155</v>
       </c>
       <c r="U583" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="584">
@@ -53362,7 +53362,7 @@
         <v>27476</v>
       </c>
       <c r="U588" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="589">
@@ -53767,7 +53767,7 @@
         <v>25218</v>
       </c>
       <c r="U595" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="596">
@@ -54115,7 +54115,7 @@
         <v>21215</v>
       </c>
       <c r="U601" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="602">
@@ -54402,7 +54402,7 @@
         <v>24923</v>
       </c>
       <c r="U606" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="607">
@@ -54461,7 +54461,7 @@
         <v>24493</v>
       </c>
       <c r="U607" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="608">
@@ -55277,7 +55277,7 @@
         <v>30104</v>
       </c>
       <c r="U621" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="622">
@@ -55627,7 +55627,7 @@
         <v>24565</v>
       </c>
       <c r="U627" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="628">
@@ -55688,7 +55688,7 @@
         <v>26409</v>
       </c>
       <c r="U628" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="629">
@@ -55928,7 +55928,7 @@
         <v>23849</v>
       </c>
       <c r="U632" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="633">
@@ -56101,7 +56101,7 @@
         <v>31752</v>
       </c>
       <c r="U635" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="636">
@@ -56221,7 +56221,7 @@
         <v>26629</v>
       </c>
       <c r="U637" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="638">
@@ -56282,7 +56282,7 @@
         <v>23017</v>
       </c>
       <c r="U638" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="639">
@@ -56463,7 +56463,7 @@
         <v>21973</v>
       </c>
       <c r="U641" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="642">
@@ -56640,7 +56640,7 @@
         <v>29010</v>
       </c>
       <c r="U644" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="645">
@@ -57273,7 +57273,7 @@
         <v>25303</v>
       </c>
       <c r="U655" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="656">
@@ -57446,7 +57446,7 @@
         <v>23822</v>
       </c>
       <c r="U658" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="659">
@@ -57678,7 +57678,7 @@
         <v>27798</v>
       </c>
       <c r="U662" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="663">
@@ -57910,7 +57910,7 @@
         <v>24278</v>
       </c>
       <c r="U666" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="667">
@@ -58083,7 +58083,7 @@
         <v>21548</v>
       </c>
       <c r="U669" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="670">
@@ -58142,7 +58142,7 @@
         <v>27782</v>
       </c>
       <c r="U670" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="671">
@@ -58431,7 +58431,7 @@
         <v>25558</v>
       </c>
       <c r="U675" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="676">
@@ -58838,7 +58838,7 @@
         <v>28096</v>
       </c>
       <c r="U682" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="683">
@@ -59243,7 +59243,7 @@
         <v>20802</v>
       </c>
       <c r="U689" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="690">
@@ -59304,7 +59304,7 @@
         <v>22275</v>
       </c>
       <c r="U690" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="691">
@@ -59652,7 +59652,7 @@
         <v>30784</v>
       </c>
       <c r="U696" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="697">
@@ -59711,7 +59711,7 @@
         <v>27075</v>
       </c>
       <c r="U697" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="698">
@@ -59770,7 +59770,7 @@
         <v>27411</v>
       </c>
       <c r="U698" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="699">
@@ -59829,7 +59829,7 @@
         <v>28928</v>
       </c>
       <c r="U699" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="700">
@@ -59888,7 +59888,7 @@
         <v>21950</v>
       </c>
       <c r="U700" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="701">
@@ -60466,7 +60466,7 @@
         <v>28585</v>
       </c>
       <c r="U710" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="711">
@@ -60584,7 +60584,7 @@
         <v>23421</v>
       </c>
       <c r="U712" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="713">
@@ -60928,7 +60928,7 @@
         <v>34368</v>
       </c>
       <c r="U718" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="719">
@@ -60987,7 +60987,7 @@
         <v>22435</v>
       </c>
       <c r="U719" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="720">
@@ -61107,7 +61107,7 @@
         <v>22006</v>
       </c>
       <c r="U721" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="722">
@@ -61166,7 +61166,7 @@
         <v>30110</v>
       </c>
       <c r="U722" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="723">
@@ -61282,7 +61282,7 @@
         <v>34045</v>
       </c>
       <c r="U724" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="725">
@@ -61685,7 +61685,7 @@
         <v>23540</v>
       </c>
       <c r="U731" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="732">
@@ -61860,7 +61860,7 @@
         <v>19395</v>
       </c>
       <c r="U734" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="735">
@@ -61919,7 +61919,7 @@
         <v>26040</v>
       </c>
       <c r="U735" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="736">
@@ -61978,7 +61978,7 @@
         <v>23763</v>
       </c>
       <c r="U736" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="737">
@@ -62267,7 +62267,7 @@
         <v>31008</v>
       </c>
       <c r="U741" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="742">
@@ -62440,7 +62440,7 @@
         <v>24467</v>
       </c>
       <c r="U744" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="745">
@@ -63244,7 +63244,7 @@
         <v>28459</v>
       </c>
       <c r="U758" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="759">
@@ -63303,7 +63303,7 @@
         <v>29228</v>
       </c>
       <c r="U759" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="760">
@@ -63364,7 +63364,7 @@
         <v>23081</v>
       </c>
       <c r="U760" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="761">
@@ -63425,7 +63425,7 @@
         <v>24566</v>
       </c>
       <c r="U761" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="762">
@@ -63604,7 +63604,7 @@
         <v>31204</v>
       </c>
       <c r="U764" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="765">
@@ -63663,7 +63663,7 @@
         <v>27900</v>
       </c>
       <c r="U765" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="766">
@@ -64237,7 +64237,7 @@
         <v>27768</v>
       </c>
       <c r="U775" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="776">
@@ -64353,7 +64353,7 @@
         <v>28854</v>
       </c>
       <c r="U777" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="778">
@@ -64412,7 +64412,7 @@
         <v>32527</v>
       </c>
       <c r="U778" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="779">
@@ -64471,7 +64471,7 @@
         <v>21983</v>
       </c>
       <c r="U779" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="780">
@@ -64589,7 +64589,7 @@
         <v>26766</v>
       </c>
       <c r="U781" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="782">
@@ -64705,7 +64705,7 @@
         <v>27132</v>
       </c>
       <c r="U783" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="784">
@@ -64880,7 +64880,7 @@
         <v>31368</v>
       </c>
       <c r="U786" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="787">
@@ -64939,7 +64939,7 @@
         <v>26784</v>
       </c>
       <c r="U787" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="788">
@@ -65114,7 +65114,7 @@
         <v>21957</v>
       </c>
       <c r="U790" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="791">
@@ -65173,7 +65173,7 @@
         <v>28862</v>
       </c>
       <c r="U791" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="792">
@@ -65291,7 +65291,7 @@
         <v>29619</v>
       </c>
       <c r="U793" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="794">
@@ -65411,7 +65411,7 @@
         <v>22022</v>
       </c>
       <c r="U795" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="796">
@@ -65470,7 +65470,7 @@
         <v>31188</v>
       </c>
       <c r="U796" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="797">
@@ -65767,7 +65767,7 @@
         <v>21267</v>
       </c>
       <c r="U801" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="802">
@@ -65883,7 +65883,7 @@
         <v>31081</v>
       </c>
       <c r="U803" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="804">
@@ -66227,7 +66227,7 @@
         <v>32132</v>
       </c>
       <c r="U809" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="810">
@@ -66288,7 +66288,7 @@
         <v>18000</v>
       </c>
       <c r="U810" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="811">
@@ -66349,7 +66349,7 @@
         <v>19798</v>
       </c>
       <c r="U811" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="812">
@@ -66410,7 +66410,7 @@
         <v>26426</v>
       </c>
       <c r="U812" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="813">
@@ -66530,7 +66530,7 @@
         <v>26302</v>
       </c>
       <c r="U814" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="815">
@@ -66589,7 +66589,7 @@
         <v>31008</v>
       </c>
       <c r="U815" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="816">
@@ -66648,7 +66648,7 @@
         <v>23423</v>
       </c>
       <c r="U816" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="817">
@@ -66709,7 +66709,7 @@
         <v>23332</v>
       </c>
       <c r="U817" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="818">
@@ -67230,7 +67230,7 @@
         <v>24240</v>
       </c>
       <c r="U826" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="827">
@@ -67348,7 +67348,7 @@
         <v>23761</v>
       </c>
       <c r="U828" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="829">
@@ -67464,7 +67464,7 @@
         <v>31153</v>
       </c>
       <c r="U830" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="831">
@@ -67696,7 +67696,7 @@
         <v>30069</v>
       </c>
       <c r="U834" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="835">
@@ -68844,7 +68844,7 @@
         <v>25991</v>
       </c>
       <c r="U854" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="855">
@@ -68903,7 +68903,7 @@
         <v>29394</v>
       </c>
       <c r="U855" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="856">
@@ -68962,7 +68962,7 @@
         <v>27374</v>
       </c>
       <c r="U856" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="857">
@@ -69192,7 +69192,7 @@
         <v>23007</v>
       </c>
       <c r="U860" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="861">
@@ -69251,7 +69251,7 @@
         <v>31023</v>
       </c>
       <c r="U861" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="862">
@@ -69485,7 +69485,7 @@
         <v>29641</v>
       </c>
       <c r="U865" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="866">
@@ -70057,7 +70057,7 @@
         <v>29930</v>
       </c>
       <c r="U875" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="876">
@@ -70177,7 +70177,7 @@
         <v>28484</v>
       </c>
       <c r="U877" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="878">
@@ -70236,7 +70236,7 @@
         <v>22668</v>
       </c>
       <c r="U878" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="879">
@@ -70354,7 +70354,7 @@
         <v>24231</v>
       </c>
       <c r="U880" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="881">
@@ -70472,7 +70472,7 @@
         <v>27506</v>
       </c>
       <c r="U882" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="883">
@@ -70590,7 +70590,7 @@
         <v>22342</v>
       </c>
       <c r="U884" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="885">
@@ -70649,7 +70649,7 @@
         <v>31813</v>
       </c>
       <c r="U885" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="886">
@@ -70765,7 +70765,7 @@
         <v>24967</v>
       </c>
       <c r="U887" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="888">
@@ -70942,7 +70942,7 @@
         <v>21964</v>
       </c>
       <c r="U890" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="891">
@@ -71001,7 +71001,7 @@
         <v>28461</v>
       </c>
       <c r="U891" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="892">
@@ -71119,7 +71119,7 @@
         <v>21183</v>
       </c>
       <c r="U893" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="894">
@@ -71178,7 +71178,7 @@
         <v>30302</v>
       </c>
       <c r="U894" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="895">
@@ -71296,7 +71296,7 @@
         <v>31164</v>
       </c>
       <c r="U896" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="897">
@@ -71355,7 +71355,7 @@
         <v>33359</v>
       </c>
       <c r="U897" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="898">
@@ -71699,7 +71699,7 @@
         <v>29235</v>
       </c>
       <c r="U903" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="904">
@@ -71760,7 +71760,7 @@
         <v>24801</v>
       </c>
       <c r="U904" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="905">
@@ -71821,7 +71821,7 @@
         <v>24210</v>
       </c>
       <c r="U905" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="906">
@@ -71882,7 +71882,7 @@
         <v>23497</v>
       </c>
       <c r="U906" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="907">
@@ -72059,7 +72059,7 @@
         <v>27170</v>
       </c>
       <c r="U909" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="910">
@@ -72236,7 +72236,7 @@
         <v>26416</v>
       </c>
       <c r="U912" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="913">
@@ -72751,7 +72751,7 @@
         <v>22247</v>
       </c>
       <c r="U921" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="922">
@@ -72810,7 +72810,7 @@
         <v>30105</v>
       </c>
       <c r="U922" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="923">
@@ -72869,7 +72869,7 @@
         <v>26738</v>
       </c>
       <c r="U923" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="924">
@@ -73158,7 +73158,7 @@
         <v>24134</v>
       </c>
       <c r="U928" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="929">
@@ -73394,7 +73394,7 @@
         <v>29560</v>
       </c>
       <c r="U932" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="933">
@@ -73683,7 +73683,7 @@
         <v>26332</v>
       </c>
       <c r="U937" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="938">
@@ -73742,7 +73742,7 @@
         <v>30681</v>
       </c>
       <c r="U938" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="939">
@@ -73801,7 +73801,7 @@
         <v>30812</v>
       </c>
       <c r="U939" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="940">
@@ -74037,7 +74037,7 @@
         <v>21523</v>
       </c>
       <c r="U943" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="944">
@@ -74155,7 +74155,7 @@
         <v>32477</v>
       </c>
       <c r="U945" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="946">
@@ -74843,7 +74843,7 @@
         <v>18985</v>
       </c>
       <c r="U957" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="958">
@@ -75051,7 +75051,7 @@
         <v>28185</v>
       </c>
       <c r="U961" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="962">
@@ -75110,7 +75110,7 @@
         <v>26444</v>
       </c>
       <c r="U962" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="963">
@@ -75171,7 +75171,7 @@
         <v>25281</v>
       </c>
       <c r="U963" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="964">
@@ -75230,7 +75230,7 @@
         <v>29250</v>
       </c>
       <c r="U964" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="965">
@@ -75289,7 +75289,7 @@
         <v>27128</v>
       </c>
       <c r="U965" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="966">
@@ -75523,7 +75523,7 @@
         <v>24575</v>
       </c>
       <c r="U969" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="970">
@@ -75928,7 +75928,7 @@
         <v>23715</v>
       </c>
       <c r="U976" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="977">
@@ -75987,7 +75987,7 @@
         <v>28074</v>
       </c>
       <c r="U977" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="978">
@@ -76160,7 +76160,7 @@
         <v>19435</v>
       </c>
       <c r="U980" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="981">
@@ -76219,7 +76219,7 @@
         <v>22731</v>
       </c>
       <c r="U981" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="982">
@@ -76278,7 +76278,7 @@
         <v>22700</v>
       </c>
       <c r="U982" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="983">
@@ -76510,7 +76510,7 @@
         <v>29356</v>
       </c>
       <c r="U986" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="987">
@@ -76569,7 +76569,7 @@
         <v>32548</v>
       </c>
       <c r="U987" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="988">
@@ -77084,7 +77084,7 @@
         <v>22778</v>
       </c>
       <c r="U996" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="997">
@@ -77318,7 +77318,7 @@
         <v>28107</v>
       </c>
       <c r="U1000" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1001">
@@ -77727,7 +77727,7 @@
         <v>32237</v>
       </c>
       <c r="U1007" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1008">
@@ -77786,7 +77786,7 @@
         <v>28463</v>
       </c>
       <c r="U1008" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="1009">
@@ -77847,7 +77847,7 @@
         <v>28141</v>
       </c>
       <c r="U1009" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1010">
